--- a/data/case1/13/cost_14.xlsx
+++ b/data/case1/13/cost_14.xlsx
@@ -57,19 +57,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
-    <col min="2" max="2" width="10.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>149.05992467426822</v>
+        <v>149.06146062471865</v>
       </c>
       <c r="B1" s="0">
-        <v>4.5823533303602781</v>
+        <v>4.7356777681544777</v>
       </c>
       <c r="C1" s="0">
-        <v>1.0913894324853231</v>
+        <v>0.81663405088062624</v>
       </c>
     </row>
   </sheetData>
